--- a/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
+++ b/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394B9FF-6BDA-4E9E-9FA9-C53B8D872817}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4BD110-D5B0-49FC-B2F5-C193E0D571CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6171" yWindow="1826" windowWidth="18515" windowHeight="11455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completeResults_R1_R30_ Copy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>Sum of Best Solution Cost</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>other intra-intra</t>
+  </si>
+  <si>
+    <t>cross</t>
   </si>
 </sst>
 </file>
@@ -995,7 +998,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2164239556404204E-2"/>
+          <c:y val="8.1033089619748658E-2"/>
+          <c:w val="0.90401933246430344"/>
+          <c:h val="0.59424541025659616"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1481,6 +1494,744 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'completeResults_R1_R30_ Copy'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>results29_swap21_reinsertion_doubleBridge_5050levy4_levy5.csv</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'completeResults_R1_R30_ Copy'!$D$1:$AD$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="27"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A-n32-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A-n33-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A-n33-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A-n34-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A-n36-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>A-n37-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A-n37-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A-n38-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>A-n39-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>A-n39-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>A-n44-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>A-n45-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>A-n45-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>A-n46-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>A-n48-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A-n53-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>A-n54-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>A-n55-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>A-n60-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>A-n61-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>A-n62-k8</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>A-n63-k10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>A-n63-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>A-n64-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>A-n65-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>A-n69-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>A-n80-k10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'completeResults_R1_R30_ Copy'!$B$8:$AD$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'completeResults_R1_R30_ Copy'!$D$8:$AD$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>904.5992463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>752.46606750000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>903.6299808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>902.2589504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>936.89054999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>737.75109229999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1051.080706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>892.56853799999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1011.455499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>974.80442459999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1005.988509</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1114.479877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1347.5876820000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1038.964649</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1232.1863530000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1247.782649</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1353.5007189999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1366.0767000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1680.3918739999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1382.0627750000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1658.5583799999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1705.8044279999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992.4267130000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1719.6930299999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1544.430674</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1497.7569040000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2256.2264919999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-194E-45B1-B27B-BD7BC12307DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'completeResults_R1_R30_ Copy'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>results28_swap21_shift1_doubleBridge_5050levy4_levy5.csv</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'completeResults_R1_R30_ Copy'!$D$1:$AD$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="27"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A-n32-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A-n33-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A-n33-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A-n34-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A-n36-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>A-n37-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A-n37-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A-n38-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>A-n39-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>A-n39-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>A-n44-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>A-n45-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>A-n45-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>A-n46-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>A-n48-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A-n53-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>A-n54-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>A-n55-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>A-n60-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>A-n61-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>A-n62-k8</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>A-n63-k10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>A-n63-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>A-n64-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>A-n65-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>A-n69-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>A-n80-k10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'completeResults_R1_R30_ Copy'!$B$11:$AD$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'completeResults_R1_R30_ Copy'!$D$11:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>943.89697860000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750.65660390000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>858.01985090000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>876.77972079999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>949.29776340000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>818.99447970000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1087.266725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900.85873479999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>988.21819789999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>999.72414240000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1173.5973039999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1128.4966919999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1347.25667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1030.6769280000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1273.1133239999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1276.6154489999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1475.2818990000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1254.316194</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1634.346542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1261.3514029999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1647.5956779999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1623.9065009999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1936.4836789999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1822.200145</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1480.888381</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1520.3017890000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2183.9863070000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-194E-45B1-B27B-BD7BC12307DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'completeResults_R1_R30_ Copy'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>results27_twoOpt_swap21_doubleBridge_5050levy4_levy5.csv</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'completeResults_R1_R30_ Copy'!$D$1:$AD$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="27"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A-n32-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A-n33-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A-n33-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A-n34-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A-n36-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>A-n37-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A-n37-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A-n38-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>A-n39-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>A-n39-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>A-n44-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>A-n45-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>A-n45-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>A-n46-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>A-n48-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A-n53-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>A-n54-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>A-n55-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>A-n60-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>A-n61-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>A-n62-k8</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>A-n63-k10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>A-n63-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>A-n64-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>A-n65-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>A-n69-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>A-n80-k10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'completeResults_R1_R30_ Copy'!$B$13:$AD$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'completeResults_R1_R30_ Copy'!$D$13:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>966.92902040000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>718.97341319999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>841.11127439999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>866.24984089999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>928.32905410000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>869.60923079999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000.862331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>930.60829120000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>928.18421980000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>946.73108760000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1117.5713920000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1202.8053339999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1299.613194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1170.2190149999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1292.5100170000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1244.2672439999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1423.5559780000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1270.916872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1685.3293739999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1237.6623520000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1596.241082</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1674.7343739999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1979.0629550000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1740.3772719999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1583.541193</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1558.658531</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2288.4125720000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-194E-45B1-B27B-BD7BC12307DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1795,7 +2546,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -1896,7 +2647,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$6:$AD$6</c15:sqref>
@@ -1994,7 +2745,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -2048,7 +2799,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -2149,7 +2900,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$7:$AD$7</c15:sqref>
@@ -2247,262 +2998,9 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-194E-45B1-B27B-BD7BC12307DE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>results29_swap21_reinsertion_doubleBridge_5050levy4_levy5.csv</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$D$1:$AD$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="27"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>A-n32-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>A-n33-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>A-n33-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>A-n34-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>A-n36-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>A-n37-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>A-n37-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>A-n38-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>A-n39-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>A-n39-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>A-n44-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>A-n45-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>A-n45-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>A-n46-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>A-n48-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>A-n53-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>A-n54-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="17">
-                          <c:v>A-n55-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="18">
-                          <c:v>A-n60-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="19">
-                          <c:v>A-n61-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="20">
-                          <c:v>A-n62-k8</c:v>
-                        </c:pt>
-                        <c:pt idx="21">
-                          <c:v>A-n63-k10</c:v>
-                        </c:pt>
-                        <c:pt idx="22">
-                          <c:v>A-n63-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="23">
-                          <c:v>A-n64-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="24">
-                          <c:v>A-n65-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="25">
-                          <c:v>A-n69-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="26">
-                          <c:v>A-n80-k10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl/>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$B$8:$AD$8</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$D$8:$AD$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>904.5992463</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>752.46606750000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>903.6299808</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>902.2589504</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>936.89054999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>737.75109229999998</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1051.080706</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>892.56853799999999</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1011.455499</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>974.80442459999995</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1005.988509</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1114.479877</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1347.5876820000001</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1038.964649</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1232.1863530000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1247.782649</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1353.5007189999999</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1366.0767000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1680.3918739999999</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1382.0627750000001</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1658.5583799999999</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1705.8044279999999</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1992.4267130000001</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1719.6930299999999</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1544.430674</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1497.7569040000001</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2256.2264919999998</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2560,7 +3058,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -2661,7 +3159,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$9:$AD$9</c15:sqref>
@@ -2759,7 +3257,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -2819,7 +3317,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -2920,7 +3418,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$10:$AD$10</c15:sqref>
@@ -3018,268 +3516,9 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-194E-45B1-B27B-BD7BC12307DE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>results28_swap21_shift1_doubleBridge_5050levy4_levy5.csv</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$D$1:$AD$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="27"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>A-n32-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>A-n33-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>A-n33-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>A-n34-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>A-n36-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>A-n37-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>A-n37-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>A-n38-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>A-n39-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>A-n39-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>A-n44-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>A-n45-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>A-n45-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>A-n46-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>A-n48-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>A-n53-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>A-n54-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="17">
-                          <c:v>A-n55-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="18">
-                          <c:v>A-n60-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="19">
-                          <c:v>A-n61-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="20">
-                          <c:v>A-n62-k8</c:v>
-                        </c:pt>
-                        <c:pt idx="21">
-                          <c:v>A-n63-k10</c:v>
-                        </c:pt>
-                        <c:pt idx="22">
-                          <c:v>A-n63-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="23">
-                          <c:v>A-n64-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="24">
-                          <c:v>A-n65-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="25">
-                          <c:v>A-n69-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="26">
-                          <c:v>A-n80-k10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl/>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$B$11:$AD$11</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$D$11:$AD$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>943.89697860000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>750.65660390000005</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>858.01985090000005</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>876.77972079999995</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>949.29776340000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>818.99447970000006</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1087.266725</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>900.85873479999998</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>988.21819789999995</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>999.72414240000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1173.5973039999999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1128.4966919999999</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1347.25667</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1030.6769280000001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1273.1133239999999</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1276.6154489999999</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1475.2818990000001</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1254.316194</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1634.346542</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1261.3514029999999</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1647.5956779999999</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1623.9065009999999</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1936.4836789999999</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1822.200145</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1480.888381</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1520.3017890000001</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2183.9863070000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3337,7 +3576,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -3438,7 +3677,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$12:$AD$12</c15:sqref>
@@ -3536,268 +3775,9 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-194E-45B1-B27B-BD7BC12307DE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="10"/>
-                <c:order val="10"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$A$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>results27_twoOpt_swap21_doubleBridge_5050levy4_levy5.csv</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$D$1:$AD$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="27"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>A-n32-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>A-n33-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>A-n33-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>A-n34-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>A-n36-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>A-n37-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>A-n37-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>A-n38-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>A-n39-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>A-n39-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>A-n44-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>A-n45-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>A-n45-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>A-n46-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>A-n48-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>A-n53-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>A-n54-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="17">
-                          <c:v>A-n55-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="18">
-                          <c:v>A-n60-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="19">
-                          <c:v>A-n61-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="20">
-                          <c:v>A-n62-k8</c:v>
-                        </c:pt>
-                        <c:pt idx="21">
-                          <c:v>A-n63-k10</c:v>
-                        </c:pt>
-                        <c:pt idx="22">
-                          <c:v>A-n63-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="23">
-                          <c:v>A-n64-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="24">
-                          <c:v>A-n65-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="25">
-                          <c:v>A-n69-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="26">
-                          <c:v>A-n80-k10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl/>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$B$13:$AD$13</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$D$13:$AD$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>966.92902040000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>718.97341319999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>841.11127439999996</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>866.24984089999998</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>928.32905410000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>869.60923079999998</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1000.862331</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>930.60829120000005</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>928.18421980000005</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>946.73108760000002</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1117.5713920000001</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1202.8053339999999</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1299.613194</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1170.2190149999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1292.5100170000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1244.2672439999999</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1423.5559780000001</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1270.916872</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1685.3293739999999</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1237.6623520000001</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1596.241082</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1674.7343739999999</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1979.0629550000001</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1740.3772719999999</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1583.541193</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1558.658531</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2288.4125720000002</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3855,7 +3835,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -3956,7 +3936,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$14:$AD$14</c15:sqref>
@@ -4054,7 +4034,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -4117,7 +4097,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -4218,7 +4198,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$15:$AD$15</c15:sqref>
@@ -4316,7 +4296,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -4379,7 +4359,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -4480,7 +4460,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$16:$AD$16</c15:sqref>
@@ -4578,7 +4558,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -4641,7 +4621,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -4742,7 +4722,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$17:$AD$17</c15:sqref>
@@ -4840,7 +4820,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -4903,7 +4883,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -5004,7 +4984,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$18:$AD$18</c15:sqref>
@@ -5102,7 +5082,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -5165,7 +5145,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -5266,7 +5246,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$19:$AD$19</c15:sqref>
@@ -5364,7 +5344,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -5427,7 +5407,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -5528,7 +5508,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$20:$AD$20</c15:sqref>
@@ -5626,7 +5606,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -5686,7 +5666,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -5787,7 +5767,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$21:$AD$21</c15:sqref>
@@ -5885,7 +5865,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -5945,7 +5925,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -6046,7 +6026,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$22:$AD$22</c15:sqref>
@@ -6144,7 +6124,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -6204,7 +6184,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -6305,7 +6285,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$23:$AD$23</c15:sqref>
@@ -6403,7 +6383,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -6463,7 +6443,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -6564,7 +6544,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$24:$AD$24</c15:sqref>
@@ -6662,7 +6642,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000015-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -6722,7 +6702,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -6823,7 +6803,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$25:$AD$25</c15:sqref>
@@ -6921,7 +6901,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000016-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -6981,7 +6961,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -7082,7 +7062,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$26:$AD$26</c15:sqref>
@@ -7180,7 +7160,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -7243,7 +7223,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -7344,7 +7324,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$27:$AD$27</c15:sqref>
@@ -7442,7 +7422,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000018-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -7505,7 +7485,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -7606,7 +7586,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$28:$AD$28</c15:sqref>
@@ -7704,7 +7684,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000019-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -7767,7 +7747,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -7868,7 +7848,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$29:$AD$29</c15:sqref>
@@ -7966,7 +7946,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001A-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -8029,7 +8009,7 @@
                 </c:marker>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
@@ -8130,7 +8110,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'completeResults_R1_R30_ Copy'!$B$30:$AD$30</c15:sqref>
@@ -8228,7 +8208,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001B-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
@@ -8355,6 +8335,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22042186807510264"/>
+          <c:y val="0.54008912997769509"/>
+          <c:w val="0.5027954026225927"/>
+          <c:h val="0.45991087002230485"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8983,8 +8973,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9313,7 +9303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16985,8 +16975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DB945A-2078-4CD3-BC43-9B73CF72FDA3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
@@ -17001,7 +16991,7 @@
   <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
@@ -17024,6 +17014,12 @@
       <c r="G2" t="s">
         <v>107</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L2" t="s">
         <v>119</v>
       </c>
@@ -17041,9 +17037,7 @@
       <c r="G3" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="1" t="s">
         <v>107</v>
       </c>
@@ -17421,8 +17415,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I3:I8"/>
     <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I2:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
+++ b/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4BD110-D5B0-49FC-B2F5-C193E0D571CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A112E73-9756-46CF-9B38-930D2FF1F3A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6171" yWindow="1826" windowWidth="18515" windowHeight="11455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completeResults_R1_R30_ Copy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
   <si>
     <t>Sum of Best Solution Cost</t>
   </si>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>cross</t>
+  </si>
+  <si>
+    <t>done but not in completeResults</t>
+  </si>
+  <si>
+    <t>levy 4,5</t>
+  </si>
+  <si>
+    <t>ongoing</t>
   </si>
 </sst>
 </file>
@@ -16975,8 +16984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DB945A-2078-4CD3-BC43-9B73CF72FDA3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
@@ -16988,15 +16997,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDA298B-2BEA-47E3-ADAB-AA2D29A03946}">
-  <dimension ref="B1:R29"/>
+  <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>106</v>
       </c>
@@ -17007,7 +17016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>78</v>
       </c>
@@ -17030,7 +17039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>79</v>
       </c>
@@ -17049,7 +17058,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -17070,7 +17079,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
@@ -17081,8 +17090,20 @@
       <c r="J5" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
@@ -17097,16 +17118,16 @@
         <v>107</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -17117,20 +17138,29 @@
       <c r="J7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>114</v>
+      <c r="M7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" t="s">
+        <v>128</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
@@ -17141,11 +17171,14 @@
       <c r="J8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>112</v>
+      </c>
+      <c r="N8" s="3">
+        <v>5050</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>110</v>
@@ -17153,8 +17186,11 @@
       <c r="Q8" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="R8" s="2">
+        <v>5050</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
@@ -17167,26 +17203,29 @@
       <c r="J9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="S9" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
@@ -17206,17 +17245,20 @@
       <c r="N10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="S10" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
@@ -17240,7 +17282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
@@ -17264,7 +17306,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>89</v>
       </c>
@@ -17281,7 +17323,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>90</v>
       </c>
@@ -17298,7 +17340,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>91</v>
       </c>
@@ -17311,8 +17353,20 @@
       <c r="N15" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="P15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S15" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>92</v>
       </c>
@@ -17324,6 +17378,18 @@
       </c>
       <c r="N16" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
@@ -17418,6 +17484,36 @@
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I2:I8"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q15:S16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
+++ b/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A112E73-9756-46CF-9B38-930D2FF1F3A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C12A38-79D8-479F-8C84-65D2D19BEA51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
   <si>
     <t>Sum of Best Solution Cost</t>
   </si>
@@ -411,7 +411,7 @@
     <t>levy 4,5</t>
   </si>
   <si>
-    <t>ongoing</t>
+    <t>Use these combinations and combine with double bridge or swap2-2?</t>
   </si>
 </sst>
 </file>
@@ -895,13 +895,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -16997,15 +17000,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDA298B-2BEA-47E3-ADAB-AA2D29A03946}">
-  <dimension ref="B1:S29"/>
+  <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>106</v>
       </c>
@@ -17016,7 +17019,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>78</v>
       </c>
@@ -17039,7 +17042,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>79</v>
       </c>
@@ -17058,7 +17061,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -17079,7 +17082,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
@@ -17090,20 +17093,8 @@
       <c r="J5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
@@ -17117,17 +17108,15 @@
       <c r="L6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="P6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="S6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -17138,29 +17127,22 @@
       <c r="J7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" t="s">
-        <v>128</v>
+      <c r="M7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
@@ -17171,26 +17153,22 @@
       <c r="J8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" s="3">
-        <v>5050</v>
+      <c r="M8" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="2">
-        <v>5050</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
@@ -17203,29 +17181,22 @@
       <c r="J9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="M9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
@@ -17236,29 +17207,26 @@
       <c r="J10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>111</v>
+      <c r="M10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>110</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="S10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
@@ -17269,20 +17237,26 @@
       <c r="J11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" s="1" t="s">
+      <c r="M11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="3">
+        <v>5050</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>108</v>
+      <c r="Q11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5050</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
@@ -17293,20 +17267,29 @@
       <c r="J12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="M12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>113</v>
+      <c r="Q12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>89</v>
       </c>
@@ -17314,16 +17297,25 @@
         <v>107</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>109</v>
+      <c r="Q13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>90</v>
       </c>
@@ -17331,16 +17323,16 @@
         <v>107</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>91</v>
       </c>
@@ -17348,25 +17340,16 @@
         <v>107</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" t="s">
-        <v>126</v>
+      <c r="Q15" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>92</v>
       </c>
@@ -17376,115 +17359,161 @@
       <c r="M16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="S16" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="L17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L18" t="s">
-        <v>124</v>
+      <c r="L18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S18" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="2" t="s">
+      <c r="N19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>114</v>
+      <c r="R19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S19" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="L21" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="L22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="L23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I2:I8"/>
+    <mergeCell ref="S6:T9"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q15:S16">
+  <conditionalFormatting sqref="Q18:S19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -17494,7 +17523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
+  <conditionalFormatting sqref="S13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17504,7 +17533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9">
+  <conditionalFormatting sqref="S12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17515,5 +17544,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
+++ b/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C12A38-79D8-479F-8C84-65D2D19BEA51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A88C8C-FB00-4C44-9AE5-2555A62FAC55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1749,6 +1749,254 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'completeResults_R1_R30_ Copy'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>results19_twoOpt_swap21_5050_levy6.csv</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'completeResults_R1_R30_ Copy'!$D$1:$AD$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="27"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A-n32-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A-n33-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A-n33-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A-n34-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A-n36-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>A-n37-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A-n37-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A-n38-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>A-n39-k5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>A-n39-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>A-n44-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>A-n45-k6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>A-n45-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>A-n46-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>A-n48-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A-n53-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>A-n54-k7</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>A-n55-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>A-n60-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>A-n61-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>A-n62-k8</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>A-n63-k10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>A-n63-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>A-n64-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>A-n65-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>A-n69-k9</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>A-n80-k10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'completeResults_R1_R30_ Copy'!$B$9:$AD$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'completeResults_R1_R30_ Copy'!$D$9:$AD$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>920.10055980000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>797.04709769999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>943.52962979999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>856.03974670000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>963.15940660000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>852.68148440000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1093.096871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>933.82969900000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>924.414174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1153.9639830000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1187.6349029999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1172.470249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1339.828706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1169.724054</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1269.7401130000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1486.0283979999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1421.582103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1249.283737</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1684.361529</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1267.4881680000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1655.312533</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1580.3964539999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1921.2012970000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1819.9383539999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1562.0519999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1591.9797100000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2216.6953699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-194E-45B1-B27B-BD7BC12307DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
@@ -3013,265 +3261,6 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-194E-45B1-B27B-BD7BC12307DE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$A$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>results19_twoOpt_swap21_5050_levy6.csv</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$B$1:$AD$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$D$1:$AD$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="27"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>A-n32-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>A-n33-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>A-n33-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>A-n34-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>A-n36-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>A-n37-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>A-n37-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>A-n38-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>A-n39-k5</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>A-n39-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>A-n44-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>A-n45-k6</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>A-n45-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>A-n46-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>A-n48-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
-                          <c:v>A-n53-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="16">
-                          <c:v>A-n54-k7</c:v>
-                        </c:pt>
-                        <c:pt idx="17">
-                          <c:v>A-n55-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="18">
-                          <c:v>A-n60-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="19">
-                          <c:v>A-n61-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="20">
-                          <c:v>A-n62-k8</c:v>
-                        </c:pt>
-                        <c:pt idx="21">
-                          <c:v>A-n63-k10</c:v>
-                        </c:pt>
-                        <c:pt idx="22">
-                          <c:v>A-n63-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="23">
-                          <c:v>A-n64-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="24">
-                          <c:v>A-n65-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="25">
-                          <c:v>A-n69-k9</c:v>
-                        </c:pt>
-                        <c:pt idx="26">
-                          <c:v>A-n80-k10</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl/>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$B$9:$AD$9</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'completeResults_R1_R30_ Copy'!$D$9:$AD$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>920.10055980000004</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>797.04709769999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>943.52962979999995</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>856.03974670000002</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>963.15940660000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>852.68148440000004</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1093.096871</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>933.82969900000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>924.414174</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1153.9639830000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1187.6349029999999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1172.470249</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1339.828706</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1169.724054</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1269.7401130000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1486.0283979999999</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1421.582103</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1249.283737</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1684.361529</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1267.4881680000001</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1655.312533</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1580.3964539999999</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1921.2012970000001</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1819.9383539999999</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1562.0519999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1591.9797100000001</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2216.6953699999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-194E-45B1-B27B-BD7BC12307DE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -16987,7 +16976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DB945A-2078-4CD3-BC43-9B73CF72FDA3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>

--- a/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
+++ b/completeResults/completeResults_R1_R30_ Copy xlsk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A88C8C-FB00-4C44-9AE5-2555A62FAC55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF50E2-3581-485B-A642-2BB19E7C1EE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16992,7 +16992,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
